--- a/exec/enter_vpn_windows/test_case/server_list/server_list.xlsx
+++ b/exec/enter_vpn_windows/test_case/server_list/server_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\office\SymlexVPNTestCases\exec\enter_vpn_windows\test_case\server_list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A34E288D-9E80-4DF8-ACBA-757F5E4BAF88}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6520E513-1E74-40E1-A798-8C2C116AF0EF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -867,6 +867,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -875,9 +878,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -897,9 +897,7 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
+        <right/>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -928,7 +926,9 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -1653,8 +1653,8 @@
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Title/Description" dataDxfId="4"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Steps" dataDxfId="3"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Expected result:" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Pass / Fail" dataDxfId="0"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Comments" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Pass / Fail" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Comments" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="Template-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1863,9 +1863,9 @@
   </sheetPr>
   <dimension ref="A1:Z990"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1881,15 +1881,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="31"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="32"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -1911,13 +1911,13 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="32"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="34"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="35"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -2103,7 +2103,7 @@
       <c r="Z6" s="3"/>
     </row>
     <row r="7" spans="1:26" ht="111" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="29" t="s">
         <v>58</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -2875,7 +2875,7 @@
         <v>114</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>120</v>
+        <v>8</v>
       </c>
       <c r="G26" s="26"/>
       <c r="H26" s="1"/>
